--- a/labour 2.xlsx
+++ b/labour 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371F64A-9F8D-4FC5-9DD7-EB61B2DBC155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9F075-D9B3-4E66-BFC6-7F09508FA74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{525D0A79-890E-4C06-AB0F-BBD54288689E}"/>
   </bookViews>
@@ -209,6 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,10 +223,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,18 +539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268FCCF2-9262-4E1C-B3EB-F3566A157633}">
-  <dimension ref="A1:BH52"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BC1" activeCellId="6" sqref="AW1:AW1048576 AX1:AX1048576 AY1:AY1048576 AZ1:AZ1048576 BA1:BA1048576 BB1:BB1048576 BC1:BC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="60" width="11.88671875" customWidth="1"/>
+    <col min="1" max="48" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -560,59 +560,59 @@
       <c r="C1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -622,118 +622,100 @@
       <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -743,11 +725,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -755,7 +737,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -828,20 +810,8 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -920,20 +890,8 @@
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +938,7 @@
         <v>83764</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +985,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1032,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1079,7 @@
         <v>9397</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1126,7 @@
         <v>11275</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1173,7 @@
         <v>11460</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1262,7 +1220,7 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1267,7 @@
         <v>10912</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1356,7 +1314,7 @@
         <v>15845</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2907,42 +2865,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
+  <mergeCells count="27">
     <mergeCell ref="D1:O1"/>
     <mergeCell ref="P1:AD1"/>
     <mergeCell ref="AH1:AV1"/>
@@ -2958,6 +2882,18 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
